--- a/data/trans_dic/P15D$nada-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 37,96</t>
+          <t>4,3; 38,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,9; 29,2</t>
+          <t>11,64; 30,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 28,01</t>
+          <t>7,79; 27,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,32; 44,36</t>
+          <t>17,25; 44,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,82; 24,86</t>
+          <t>6,01; 26,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,29; 37,79</t>
+          <t>20,15; 37,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,1; 29,6</t>
+          <t>9,37; 28,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,19; 28,5</t>
+          <t>15,79; 29,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 24,82</t>
+          <t>8,0; 24,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,36; 31,88</t>
+          <t>18,77; 31,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 25,14</t>
+          <t>11,43; 25,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,69; 31,04</t>
+          <t>18,45; 30,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,18; 36,88</t>
+          <t>17,43; 36,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,65; 32,96</t>
+          <t>19,98; 32,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 26,32</t>
+          <t>11,47; 26,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 17,24</t>
+          <t>6,19; 16,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 35,07</t>
+          <t>7,38; 34,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,92; 39,1</t>
+          <t>21,91; 38,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 21,41</t>
+          <t>6,54; 21,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,2; 26,68</t>
+          <t>12,0; 26,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 32,65</t>
+          <t>15,67; 32,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,14; 33,27</t>
+          <t>22,32; 33,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 21,28</t>
+          <t>11,1; 21,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 19,12</t>
+          <t>9,98; 18,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,14; 67,6</t>
+          <t>19,39; 67,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 57,6</t>
+          <t>15,76; 55,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 33,22</t>
+          <t>2,57; 28,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,89; 48,94</t>
+          <t>8,22; 47,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 53,27</t>
+          <t>6,62; 54,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 37,08</t>
+          <t>7,01; 35,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 24,63</t>
+          <t>3,19; 27,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,76; 30,42</t>
+          <t>8,55; 29,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,5; 53,55</t>
+          <t>18,84; 53,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,42; 40,56</t>
+          <t>15,74; 39,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 20,05</t>
+          <t>4,66; 21,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,81; 34,76</t>
+          <t>11,08; 34,97</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,72; 34,58</t>
+          <t>19,7; 36,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 30,68</t>
+          <t>19,71; 30,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,94; 22,81</t>
+          <t>11,38; 22,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,25; 22,47</t>
+          <t>10,85; 21,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 25,71</t>
+          <t>10,23; 24,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,94; 34,6</t>
+          <t>22,3; 34,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 19,95</t>
+          <t>9,28; 20,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 25,31</t>
+          <t>14,86; 24,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 28,17</t>
+          <t>17,24; 28,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,02; 30,67</t>
+          <t>22,95; 30,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 19,45</t>
+          <t>11,69; 19,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 21,43</t>
+          <t>14,39; 21,66</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tuvo consecuencias el último accidente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14107</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7295</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10409</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6423</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32669</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13376</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17285</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10683</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>46776</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20672</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>27693</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1082; 9786</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8704; 22930</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3560; 12624</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6142; 15756</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2736; 12070</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22537; 42227</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6993; 20976</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12564; 23261</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5660; 17592</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>35042; 59349</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13756; 30802</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21249; 35326</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20246</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47436</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21541</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13636</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6296</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33697</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10581</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18489</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26543</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>81133</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32122</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>32126</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13680; 28440</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>36370; 59066</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13902; 31759</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8045; 21856</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2588; 12197</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24909; 44114</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5537; 17887</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12233; 27308</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17796; 37210</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>66001; 97592</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22838; 43788</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23159; 43422</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8181</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8874</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7840</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2992</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3146</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11174</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14154</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6698</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13065</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3762; 12997</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4105; 14425</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>792; 8842</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2732; 15838</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>877; 7271</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2017; 10106</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>990; 8440</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2638; 9173</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6148; 17535</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8632; 21640</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2878; 13359</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7102; 22411</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>32687</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>70417</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32388</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31885</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15712</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>71646</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27103</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40998</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48399</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>142063</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59491</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>72884</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24250; 44542</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>55746; 85740</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22486; 44024</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>21570; 43335</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9594; 23310</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>56707; 86513</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17651; 39101</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31557; 51131</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>37386; 61372</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>123277; 164859</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>45364; 75809</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>59169; 89093</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>